--- a/output/3_Regression/h08/h08table_rmse.xlsx
+++ b/output/3_Regression/h08/h08table_rmse.xlsx
@@ -441,7 +441,7 @@
         <v>1.74446508303648</v>
       </c>
       <c r="G2">
-        <v>2.406749805483151</v>
+        <v>2.439395714791675</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>1.619826109609147</v>
       </c>
       <c r="G3">
-        <v>3.228553517482105</v>
+        <v>2.654166861915126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>1.535962211678485</v>
       </c>
       <c r="G4">
-        <v>4.059993252795917</v>
+        <v>2.932748606585984</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>1.524907563881122</v>
       </c>
       <c r="G5">
-        <v>3.85554433190323</v>
+        <v>2.732409092316958</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>1.532106071897737</v>
       </c>
       <c r="G6">
-        <v>3.497800756270056</v>
+        <v>2.552369059688189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>1.528400529017025</v>
       </c>
       <c r="G7">
-        <v>3.205509927792952</v>
+        <v>2.338191515260793</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>1.516497732530339</v>
       </c>
       <c r="G8">
-        <v>2.953449579033571</v>
+        <v>2.314355198660436</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>1.504725940996167</v>
       </c>
       <c r="G9">
-        <v>2.75041242689242</v>
+        <v>2.254200275852296</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>1.496581055687221</v>
       </c>
       <c r="G10">
-        <v>2.592765956987388</v>
+        <v>2.187281855650032</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>1.499602778089094</v>
       </c>
       <c r="G11">
-        <v>2.458437763972473</v>
+        <v>2.125933438114616</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>1.50225972599283</v>
       </c>
       <c r="G12">
-        <v>2.33979925422083</v>
+        <v>2.069313055657247</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>1.513435225012461</v>
       </c>
       <c r="G13">
-        <v>2.24096150623681</v>
+        <v>2.010388009819419</v>
       </c>
     </row>
   </sheetData>
